--- a/PS-VRP/Dati_output/commesse_escluse.xlsx
+++ b/PS-VRP/Dati_output/commesse_escluse.xlsx
@@ -16,7 +16,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
+  </numFmts>
   <fonts count="1">
     <font>
       <name val="Calibri"/>
@@ -46,8 +48,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -413,14 +416,55 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
+  <cols>
+    <col width="30" customWidth="1" min="1" max="1"/>
+    <col width="30" customWidth="1" min="2" max="2"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>release_date</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>252470</v>
+      </c>
+      <c r="B2" s="1" t="n">
+        <v>45849.58333333334</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>252334</v>
+      </c>
+      <c r="B3" s="1" t="n">
+        <v>45849.58333333334</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>252899</v>
+      </c>
+      <c r="B4" s="1" t="n">
+        <v>45849.58333333334</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/PS-VRP/Dati_output/commesse_escluse.xlsx
+++ b/PS-VRP/Dati_output/commesse_escluse.xlsx
@@ -16,9 +16,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
-  </numFmts>
+  <numFmts count="0"/>
   <fonts count="1">
     <font>
       <name val="Calibri"/>
@@ -48,9 +46,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -416,55 +413,14 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <cols>
-    <col width="30" customWidth="1" min="1" max="1"/>
-    <col width="30" customWidth="1" min="2" max="2"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>id</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>release_date</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>252470</v>
-      </c>
-      <c r="B2" s="1" t="n">
-        <v>45849.58333333334</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>252334</v>
-      </c>
-      <c r="B3" s="1" t="n">
-        <v>45849.58333333334</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>252899</v>
-      </c>
-      <c r="B4" s="1" t="n">
-        <v>45849.58333333334</v>
-      </c>
-    </row>
-  </sheetData>
+  <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/PS-VRP/Dati_output/commesse_escluse.xlsx
+++ b/PS-VRP/Dati_output/commesse_escluse.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Problemi Tassative" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Problemi release date" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>

--- a/PS-VRP/Dati_output/commesse_escluse.xlsx
+++ b/PS-VRP/Dati_output/commesse_escluse.xlsx
@@ -16,7 +16,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
+  </numFmts>
   <fonts count="1">
     <font>
       <name val="Calibri"/>
@@ -46,8 +48,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -413,14 +416,47 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
+  <cols>
+    <col width="30" customWidth="1" min="1" max="1"/>
+    <col width="30" customWidth="1" min="2" max="2"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>release_date</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>253392</v>
+      </c>
+      <c r="B2" s="1" t="n">
+        <v>45911.58333333334</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>253393</v>
+      </c>
+      <c r="B3" s="1" t="n">
+        <v>45912.58333333334</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/PS-VRP/Dati_output/commesse_escluse.xlsx
+++ b/PS-VRP/Dati_output/commesse_escluse.xlsx
@@ -16,9 +16,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
-  </numFmts>
+  <numFmts count="0"/>
   <fonts count="1">
     <font>
       <name val="Calibri"/>
@@ -48,9 +46,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -416,47 +413,14 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <cols>
-    <col width="30" customWidth="1" min="1" max="1"/>
-    <col width="30" customWidth="1" min="2" max="2"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>id</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>release_date</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>253392</v>
-      </c>
-      <c r="B2" s="1" t="n">
-        <v>45911.58333333334</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>253393</v>
-      </c>
-      <c r="B3" s="1" t="n">
-        <v>45912.58333333334</v>
-      </c>
-    </row>
-  </sheetData>
+  <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>